--- a/biology/Médecine/Karl_Wilhelm_von_Kupffer/Karl_Wilhelm_von_Kupffer.xlsx
+++ b/biology/Médecine/Karl_Wilhelm_von_Kupffer/Karl_Wilhelm_von_Kupffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Wilhelm von Kupffer (né le 14 novembre 1829 à Lestene - mort le 16 décembre 1902 à Munich) est un anatomiste germano-balte connu pour avoir découvert en 1876 la cellule qui porte son nom.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière académique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Wilhelm von Kupffer est le fils aîné du pasteur Karl Hermann Kupffer (1797-1860). Durant son enfant il apprend notamment à lire et à écrire avec sa mère et prend des leçons de français deux fois par semaine[1].
-En 1854, il obtient son doctorat de médecine à l'université de Tartu[1] où il exerce ensuite comme assistant du physiologiste Friedrich Heinrich Bidder (de) (1810 - 1894). En 1856 - 1857 il part pour un voyage d'étude qui le conduit à Vienne, Berlin et Göttingen et lui permet d'étudier la physiologie auprès de Emil du Bois-Reymond (1818-1896) et Johannes Peter Müller (1801-1858)[1]. Il retourne ensuite à Tartu où il devient professeur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Wilhelm von Kupffer est le fils aîné du pasteur Karl Hermann Kupffer (1797-1860). Durant son enfant il apprend notamment à lire et à écrire avec sa mère et prend des leçons de français deux fois par semaine.
+En 1854, il obtient son doctorat de médecine à l'université de Tartu où il exerce ensuite comme assistant du physiologiste Friedrich Heinrich Bidder (de) (1810 - 1894). En 1856 - 1857 il part pour un voyage d'étude qui le conduit à Vienne, Berlin et Göttingen et lui permet d'étudier la physiologie auprès de Emil du Bois-Reymond (1818-1896) et Johannes Peter Müller (1801-1858). Il retourne ensuite à Tartu où il devient professeur.
 En 1866 il obtient la chaire professorale d'anatomie de l'université de Kiel. Il exerce ensuite le même poste à partir de 1875 à l'université de Königsberg puis à l'université de Munich de 1880 jusqu'à sa retraite en 1901.
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kupffer est reconnu pour ses travaux dans les domaines de la neuroanatomie et de l’embryologie. Il a conduit des études sur le développement du cerveau, de la rate, du pancréas et des reins[1] ainsi que sur l’innervation des glandes exocrines. Kupffer a également fait des recherches sur la différenciation du mésoderme.
-En tant qu'assistant de Bidder à Tartu, Kupffer a étudié les structures du système nerveux central. Il a également eu l'occasion d'examiner le crâne du philosophe Emmanuel Kant à Königsberg[1].
-C'est en essayant de mettre en évidence des fibres nerveuses dans le foie à l'aide de chlorure d'or qu'il découvre fortuitement en 1876 les cellules de Kupffer avec leur forme étoilée[1],[2]. Kupffer rattache initialement celles-ci à l'adventice vasculaire[1]. Peu après le pathologiste polonais Tadeusz Browicz montre leur appartenance au groupe des macrophages.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kupffer est reconnu pour ses travaux dans les domaines de la neuroanatomie et de l’embryologie. Il a conduit des études sur le développement du cerveau, de la rate, du pancréas et des reins ainsi que sur l’innervation des glandes exocrines. Kupffer a également fait des recherches sur la différenciation du mésoderme.
+En tant qu'assistant de Bidder à Tartu, Kupffer a étudié les structures du système nerveux central. Il a également eu l'occasion d'examiner le crâne du philosophe Emmanuel Kant à Königsberg.
+C'est en essayant de mettre en évidence des fibres nerveuses dans le foie à l'aide de chlorure d'or qu'il découvre fortuitement en 1876 les cellules de Kupffer avec leur forme étoilée,. Kupffer rattache initialement celles-ci à l'adventice vasculaire. Peu après le pathologiste polonais Tadeusz Browicz montre leur appartenance au groupe des macrophages.
 </t>
         </is>
       </c>
